--- a/data.xlsx
+++ b/data.xlsx
@@ -35,7 +35,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
   </numFmts>
   <fonts count="1">
@@ -470,6 +474,7 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:K2"/>
   </ignoredErrors>
@@ -478,7 +483,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -512,16 +517,336 @@
         <v>备注</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>视频流</v>
+      </c>
+      <c r="B2" t="str">
+        <v>张钞</v>
+      </c>
+      <c r="C2" t="str">
+        <v>服务器在算法板上运行</v>
+      </c>
+      <c r="D2" t="str">
+        <v>整体测试</v>
+      </c>
+      <c r="E2" t="str">
+        <v/>
+      </c>
+      <c r="F2" t="str">
+        <v>3月18日</v>
+      </c>
+      <c r="G2" t="str">
+        <v>3月22日</v>
+      </c>
+      <c r="H2" t="str">
+        <v>进行中</v>
+      </c>
+      <c r="I2" t="str">
+        <v>备注</v>
+      </c>
+      <c r="J2" t="str">
+        <v>2024年03月22日 17:22:29</v>
+      </c>
+      <c r="K2" t="str">
+        <v>::ffff:192.168.10.9</v>
+      </c>
+    </row>
+    <row r="3" xml:space="preserve">
+      <c r="A3" t="str">
+        <v>石油井站</v>
+      </c>
+      <c r="B3" t="str">
+        <v>川庆</v>
+      </c>
+      <c r="C3" t="str" xml:space="preserve">
+        <v xml:space="preserve">1、url 替换。
+2、websocket 穿透测试。
+</v>
+      </c>
+      <c r="D3" t="str">
+        <v>websocket未成功</v>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <v>3月20日</v>
+      </c>
+      <c r="G3" t="str">
+        <v>3月22日</v>
+      </c>
+      <c r="H3" t="str">
+        <v>进行中</v>
+      </c>
+      <c r="I3" t="str">
+        <v>备注</v>
+      </c>
+      <c r="J3" t="str">
+        <v>2024年03月22日 17:22:29</v>
+      </c>
+      <c r="K3" t="str">
+        <v>::ffff:192.168.10.9</v>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
+      <c r="A4" t="str">
+        <v>压裂设计分析</v>
+      </c>
+      <c r="B4" t="str">
+        <v>张弛</v>
+      </c>
+      <c r="C4" t="str" xml:space="preserve">
+        <v xml:space="preserve">1、经济效益模块脚本对接。
+2、添加数据模板导出功能。</v>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v>3月21日</v>
+      </c>
+      <c r="G4" t="str">
+        <v>3月22日</v>
+      </c>
+      <c r="H4" t="str">
+        <v>进行中</v>
+      </c>
+      <c r="I4" t="str">
+        <v>备注</v>
+      </c>
+      <c r="J4" t="str">
+        <v>2024年03月22日 17:22:29</v>
+      </c>
+      <c r="K4" t="str">
+        <v>::ffff:192.168.10.9</v>
+      </c>
+    </row>
+    <row r="5" xml:space="preserve">
+      <c r="A5" t="str">
+        <v>天玛采煤机</v>
+      </c>
+      <c r="B5" t="str">
+        <v>天玛</v>
+      </c>
+      <c r="C5" t="str" xml:space="preserve">
+        <v xml:space="preserve">1、数据库查询问题排查。
+2、采煤机机位折线图显示修正。</v>
+      </c>
+      <c r="D5" t="str">
+        <v>其他模块问题排查</v>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <v>3月18日</v>
+      </c>
+      <c r="G5" t="str">
+        <v>3月22日</v>
+      </c>
+      <c r="H5" t="str">
+        <v>进行中</v>
+      </c>
+      <c r="I5" t="str">
+        <v>备注</v>
+      </c>
+      <c r="J5" t="str">
+        <v>2024年03月22日 17:22:29</v>
+      </c>
+      <c r="K5" t="str">
+        <v>::ffff:192.168.10.9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>视频流配合调试</v>
+      </c>
+      <c r="B6" t="str">
+        <v>张钞</v>
+      </c>
+      <c r="C6" t="str">
+        <v>多路测试基本完成</v>
+      </c>
+      <c r="D6" t="str">
+        <v>压力测试</v>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <v>3月25日</v>
+      </c>
+      <c r="G6" t="str">
+        <v>3月29日</v>
+      </c>
+      <c r="H6" t="str">
+        <v>进行中</v>
+      </c>
+      <c r="I6" t="str">
+        <v>备注</v>
+      </c>
+      <c r="J6" t="str">
+        <v>2024年03月29日 18:13:06</v>
+      </c>
+      <c r="K6" t="str">
+        <v>::ffff:192.168.10.9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>天玛采煤机</v>
+      </c>
+      <c r="B7" t="str">
+        <v>天玛</v>
+      </c>
+      <c r="C7" t="str">
+        <v>采煤机位置显示及标签信息</v>
+      </c>
+      <c r="D7" t="str">
+        <v>刀数计算及显示</v>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+      <c r="F7" t="str">
+        <v>3月25日</v>
+      </c>
+      <c r="G7" t="str">
+        <v>3月29日</v>
+      </c>
+      <c r="H7" t="str">
+        <v>进行中</v>
+      </c>
+      <c r="I7" t="str">
+        <v>备注</v>
+      </c>
+      <c r="J7" t="str">
+        <v>2024年03月29日 18:13:06</v>
+      </c>
+      <c r="K7" t="str">
+        <v>::ffff:192.168.10.9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>石油井站</v>
+      </c>
+      <c r="B8" t="str">
+        <v>川庆</v>
+      </c>
+      <c r="C8" t="str">
+        <v>打包</v>
+      </c>
+      <c r="D8" t="str">
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <v/>
+      </c>
+      <c r="F8" t="str">
+        <v>3月29日</v>
+      </c>
+      <c r="G8" t="str">
+        <v>3月29日</v>
+      </c>
+      <c r="H8" t="str">
+        <v>进行中</v>
+      </c>
+      <c r="I8" t="str">
+        <v>备注</v>
+      </c>
+      <c r="J8" t="str">
+        <v>2024年03月29日 18:13:06</v>
+      </c>
+      <c r="K8" t="str">
+        <v>::ffff:192.168.10.9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>天玛华为视频流</v>
+      </c>
+      <c r="B9" t="str">
+        <v>天玛</v>
+      </c>
+      <c r="C9" t="str">
+        <v>c++ tcp rtsp/rtp 解析</v>
+      </c>
+      <c r="D9" t="str">
+        <v>图像显示 direct2d c++</v>
+      </c>
+      <c r="E9" t="str">
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <v>3月25日</v>
+      </c>
+      <c r="G9" t="str">
+        <v>3月29日</v>
+      </c>
+      <c r="H9" t="str">
+        <v>进行中</v>
+      </c>
+      <c r="I9" t="str">
+        <v>备注</v>
+      </c>
+      <c r="J9" t="str">
+        <v>2024年03月29日 18:13:06</v>
+      </c>
+      <c r="K9" t="str">
+        <v>::ffff:192.168.10.9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>剪切平台</v>
+      </c>
+      <c r="B10" t="str">
+        <v>王绪</v>
+      </c>
+      <c r="C10" t="str">
+        <v>项目需求确认</v>
+      </c>
+      <c r="D10" t="str">
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <v>3月29日</v>
+      </c>
+      <c r="G10" t="str">
+        <v>3月29日</v>
+      </c>
+      <c r="H10" t="str">
+        <v>进行中</v>
+      </c>
+      <c r="I10" t="str">
+        <v>备注</v>
+      </c>
+      <c r="J10" t="str">
+        <v>2024年03月29日 18:13:06</v>
+      </c>
+      <c r="K10" t="str">
+        <v>::ffff:192.168.10.9</v>
+      </c>
+    </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K10"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -555,16 +880,227 @@
         <v>备注</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>地质保障系统解决方案PPT</v>
+      </c>
+      <c r="B2" t="str">
+        <v>李总</v>
+      </c>
+      <c r="C2" t="str">
+        <v>已完成整体页面优化</v>
+      </c>
+      <c r="D2" t="str">
+        <v>无</v>
+      </c>
+      <c r="E2" t="str">
+        <v>无</v>
+      </c>
+      <c r="F2" t="str">
+        <v>3月25日</v>
+      </c>
+      <c r="G2" t="str">
+        <v>3月25日</v>
+      </c>
+      <c r="H2" t="str">
+        <v>已完成</v>
+      </c>
+      <c r="I2" t="str">
+        <v>备注</v>
+      </c>
+      <c r="J2" t="str">
+        <v>2024年03月29日 18:00:43</v>
+      </c>
+      <c r="K2" t="str">
+        <v>::ffff:192.168.10.163</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>ARGONV-AI35-L6 AI算法板使用说明手册设计</v>
+      </c>
+      <c r="B3" t="str">
+        <v>李总</v>
+      </c>
+      <c r="C3" t="str">
+        <v>说明手册六折页设计完成</v>
+      </c>
+      <c r="D3" t="str">
+        <v>无</v>
+      </c>
+      <c r="E3" t="str">
+        <v>无</v>
+      </c>
+      <c r="F3" t="str">
+        <v>3月25日</v>
+      </c>
+      <c r="G3" t="str">
+        <v>3月25日</v>
+      </c>
+      <c r="H3" t="str">
+        <v>已完成</v>
+      </c>
+      <c r="I3" t="str">
+        <v>备注</v>
+      </c>
+      <c r="J3" t="str">
+        <v>2024年03月29日 18:00:43</v>
+      </c>
+      <c r="K3" t="str">
+        <v>::ffff:192.168.10.163</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>视频拼接配合处理切图</v>
+      </c>
+      <c r="B4" t="str">
+        <v>李先胜</v>
+      </c>
+      <c r="C4" t="str">
+        <v>已完成</v>
+      </c>
+      <c r="D4" t="str">
+        <v>无</v>
+      </c>
+      <c r="E4" t="str">
+        <v>无</v>
+      </c>
+      <c r="F4" t="str">
+        <v>3月27日</v>
+      </c>
+      <c r="G4" t="str">
+        <v>3月28日</v>
+      </c>
+      <c r="H4" t="str">
+        <v>已完成</v>
+      </c>
+      <c r="I4" t="str">
+        <v>备注</v>
+      </c>
+      <c r="J4" t="str">
+        <v>2024年03月29日 18:00:43</v>
+      </c>
+      <c r="K4" t="str">
+        <v>::ffff:192.168.10.163</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>算法板</v>
+      </c>
+      <c r="B5" t="str">
+        <v>杨少鹏</v>
+      </c>
+      <c r="C5" t="str">
+        <v>配合杨少鹏算法板抠图，已完成</v>
+      </c>
+      <c r="D5" t="str">
+        <v>无</v>
+      </c>
+      <c r="E5" t="str">
+        <v>无</v>
+      </c>
+      <c r="F5" t="str">
+        <v>3月28日</v>
+      </c>
+      <c r="G5" t="str">
+        <v>3月28日</v>
+      </c>
+      <c r="H5" t="str">
+        <v>已完成</v>
+      </c>
+      <c r="I5" t="str">
+        <v>备注</v>
+      </c>
+      <c r="J5" t="str">
+        <v>2024年03月29日 18:00:43</v>
+      </c>
+      <c r="K5" t="str">
+        <v>::ffff:192.168.10.163</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>防喷器动态剪切试验平台</v>
+      </c>
+      <c r="B6" t="str">
+        <v>李凡</v>
+      </c>
+      <c r="C6" t="str">
+        <v>配合切图，已完成</v>
+      </c>
+      <c r="D6" t="str">
+        <v>无</v>
+      </c>
+      <c r="E6" t="str">
+        <v>无</v>
+      </c>
+      <c r="F6" t="str">
+        <v>3月29日</v>
+      </c>
+      <c r="G6" t="str">
+        <v>3月29日</v>
+      </c>
+      <c r="H6" t="str">
+        <v>已完成</v>
+      </c>
+      <c r="I6" t="str">
+        <v>备注</v>
+      </c>
+      <c r="J6" t="str">
+        <v>2024年03月29日 18:00:43</v>
+      </c>
+      <c r="K6" t="str">
+        <v>::ffff:192.168.10.163</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>孔庄异物</v>
+      </c>
+      <c r="B7" t="str">
+        <v>刘畅</v>
+      </c>
+      <c r="C7" t="str">
+        <v>配合刘畅P图，共计25张，已完成</v>
+      </c>
+      <c r="D7" t="str">
+        <v>无</v>
+      </c>
+      <c r="E7" t="str">
+        <v>无</v>
+      </c>
+      <c r="F7" t="str">
+        <v>3月29日</v>
+      </c>
+      <c r="G7" t="str">
+        <v>3月29日</v>
+      </c>
+      <c r="H7" t="str">
+        <v>已完成</v>
+      </c>
+      <c r="I7" t="str">
+        <v>备注</v>
+      </c>
+      <c r="J7" t="str">
+        <v>2024年03月29日 18:00:43</v>
+      </c>
+      <c r="K7" t="str">
+        <v>::ffff:192.168.10.163</v>
+      </c>
+    </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K7"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -598,9 +1134,290 @@
         <v>备注</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>视频拼接</v>
+      </c>
+      <c r="B2" t="str">
+        <v>杨文俊</v>
+      </c>
+      <c r="C2" t="str">
+        <v>根据提供的图片制作所需要的模型</v>
+      </c>
+      <c r="D2" t="str">
+        <v>无</v>
+      </c>
+      <c r="E2" t="str">
+        <v>无</v>
+      </c>
+      <c r="F2" t="str">
+        <v>3月22日</v>
+      </c>
+      <c r="G2" t="str">
+        <v>3月22日</v>
+      </c>
+      <c r="H2" t="str">
+        <v>已完成</v>
+      </c>
+      <c r="I2" t="str">
+        <v>备注</v>
+      </c>
+      <c r="J2" t="str">
+        <v>2024年03月22日 17:20:03</v>
+      </c>
+      <c r="K2" t="str">
+        <v>::ffff:192.168.10.141</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>北京汇智恒安科技购买L6</v>
+      </c>
+      <c r="B3" t="str">
+        <v>张慧</v>
+      </c>
+      <c r="C3" t="str">
+        <v>根据北京汇智恒安科技所需要的要求制作固定条及在L6外壳板底部开孔</v>
+      </c>
+      <c r="D3" t="str">
+        <v>无</v>
+      </c>
+      <c r="E3" t="str">
+        <v>无</v>
+      </c>
+      <c r="F3" t="str">
+        <v>3月18日</v>
+      </c>
+      <c r="G3" t="str">
+        <v>3月19日</v>
+      </c>
+      <c r="H3" t="str">
+        <v>已完成</v>
+      </c>
+      <c r="I3" t="str">
+        <v>备注</v>
+      </c>
+      <c r="J3" t="str">
+        <v>2024年03月22日 17:20:03</v>
+      </c>
+      <c r="K3" t="str">
+        <v>::ffff:192.168.10.141</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>割煤机模型优化</v>
+      </c>
+      <c r="B4" t="str">
+        <v>郑宇</v>
+      </c>
+      <c r="C4" t="str">
+        <v>使用vray对割煤机的模型进行优化和修改</v>
+      </c>
+      <c r="D4" t="str">
+        <v>无</v>
+      </c>
+      <c r="E4" t="str">
+        <v>无</v>
+      </c>
+      <c r="F4" t="str">
+        <v>3月18日</v>
+      </c>
+      <c r="G4" t="str">
+        <v>3月20日</v>
+      </c>
+      <c r="H4" t="str">
+        <v>已完成</v>
+      </c>
+      <c r="I4" t="str">
+        <v>备注</v>
+      </c>
+      <c r="J4" t="str">
+        <v>2024年03月22日 17:20:03</v>
+      </c>
+      <c r="K4" t="str">
+        <v>::ffff:192.168.10.141</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>撕裂设备</v>
+      </c>
+      <c r="B5" t="str">
+        <v>郑宇</v>
+      </c>
+      <c r="C5" t="str">
+        <v>根据向取证人员递交的cad对撕裂设备进行重新建模，根据尺寸还原设备的模型。</v>
+      </c>
+      <c r="D5" t="str">
+        <v>未贴图</v>
+      </c>
+      <c r="E5" t="str">
+        <v>视频拼接</v>
+      </c>
+      <c r="F5" t="str">
+        <v>3月20日</v>
+      </c>
+      <c r="G5" t="str">
+        <v>3月22日</v>
+      </c>
+      <c r="H5" t="str">
+        <v>进行中</v>
+      </c>
+      <c r="I5" t="str">
+        <v>备注</v>
+      </c>
+      <c r="J5" t="str">
+        <v>2024年03月22日 17:20:03</v>
+      </c>
+      <c r="K5" t="str">
+        <v>::ffff:192.168.10.141</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>项目</v>
+      </c>
+      <c r="B6" t="str">
+        <v>山源</v>
+      </c>
+      <c r="C6" t="str">
+        <v>已完成出入口及内部所需要的模型及效果</v>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <v>3月27日</v>
+      </c>
+      <c r="G6" t="str">
+        <v>3月29日</v>
+      </c>
+      <c r="H6" t="str">
+        <v>已完成</v>
+      </c>
+      <c r="I6" t="str">
+        <v>备注</v>
+      </c>
+      <c r="J6" t="str">
+        <v>2024年03月29日 17:58:05</v>
+      </c>
+      <c r="K6" t="str">
+        <v>::ffff:192.168.10.141</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>项目</v>
+      </c>
+      <c r="B7" t="str">
+        <v>撕裂设备</v>
+      </c>
+      <c r="C7" t="str">
+        <v>对撕裂设备的模型进行贴图及细节更改</v>
+      </c>
+      <c r="D7" t="str">
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+      <c r="F7" t="str">
+        <v>3月25日</v>
+      </c>
+      <c r="G7" t="str">
+        <v>3月27日</v>
+      </c>
+      <c r="H7" t="str">
+        <v>已完成</v>
+      </c>
+      <c r="I7" t="str">
+        <v>备注</v>
+      </c>
+      <c r="J7" t="str">
+        <v>2024年03月29日 17:58:05</v>
+      </c>
+      <c r="K7" t="str">
+        <v>::ffff:192.168.10.141</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>项目</v>
+      </c>
+      <c r="B8" t="str">
+        <v>三目摄像仪</v>
+      </c>
+      <c r="C8" t="str">
+        <v>跟进三目摄像仪外壳的制作</v>
+      </c>
+      <c r="D8" t="str">
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <v/>
+      </c>
+      <c r="F8" t="str">
+        <v>3月25日</v>
+      </c>
+      <c r="G8" t="str">
+        <v>3月26日</v>
+      </c>
+      <c r="H8" t="str">
+        <v>已完成</v>
+      </c>
+      <c r="I8" t="str">
+        <v>备注</v>
+      </c>
+      <c r="J8" t="str">
+        <v>2024年03月29日 17:58:05</v>
+      </c>
+      <c r="K8" t="str">
+        <v>::ffff:192.168.10.141</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>项目</v>
+      </c>
+      <c r="B9" t="str">
+        <v>吴章顺</v>
+      </c>
+      <c r="C9" t="str">
+        <v>根据吴章顺提供的cad文件对cad进行pdf导出</v>
+      </c>
+      <c r="D9" t="str">
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <v>3月28日</v>
+      </c>
+      <c r="G9" t="str">
+        <v>3月28日</v>
+      </c>
+      <c r="H9" t="str">
+        <v>已完成</v>
+      </c>
+      <c r="I9" t="str">
+        <v>备注</v>
+      </c>
+      <c r="J9" t="str">
+        <v>2024年03月29日 17:58:05</v>
+      </c>
+      <c r="K9" t="str">
+        <v>::ffff:192.168.10.141</v>
+      </c>
+    </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K9"/>
   </ignoredErrors>
 </worksheet>
 </file>